--- a/drivers/测试用例.xlsx
+++ b/drivers/测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="15255" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="20">
   <si>
     <t>username</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>请输入用户名</t>
+  </si>
+  <si>
+    <t>东方化工</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,6 +173,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -118,122 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +251,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,169 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,11 +447,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,9 +510,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,32 +522,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,21 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,7 +1059,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1161,13 +1164,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="12.875" customWidth="1"/>
@@ -1204,6 +1207,91 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1216,13 +1304,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1241,7 +1329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1253,6 +1341,111 @@
       </c>
       <c r="D2">
         <v>400</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>402</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>403</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>404</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>405</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>406</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
